--- a/Templates/development/10_template_development.xlsx
+++ b/Templates/development/10_template_development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ABFEB8-612A-4377-977F-441824E1228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC40FF9D-A838-4303-9A4F-0C6D5DDD9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="157">
   <si>
     <t>Table_name</t>
   </si>
@@ -498,6 +498,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="S1" s="25" t="s">
         <v>49</v>
@@ -1205,9 +1208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z970"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B64"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>48</v>

--- a/Templates/development/10_template_development.xlsx
+++ b/Templates/development/10_template_development.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC40FF9D-A838-4303-9A4F-0C6D5DDD9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFB944-EFFF-4FAA-A24F-F34B5A578AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
   <si>
     <t>Table_name</t>
   </si>
@@ -501,6 +501,9 @@
   <si>
     <t>date_of_collection_final</t>
   </si>
+  <si>
+    <t>life_stage_general_final</t>
+  </si>
 </sst>
 </file>
 
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BK1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1102,7 @@
         <v>77</v>
       </c>
       <c r="AE1" s="26" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AF1" s="26" t="s">
         <v>81</v>
@@ -1208,9 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z970"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2346,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>80</v>
